--- a/log_history/Y4_B2526_Neurology_scanner1768044697066_f03aa818c268583d1806bf0fee7b9827b608a1e87ec9b10ba5418e1bc9a8845e.xlsx
+++ b/log_history/Y4_B2526_Neurology_scanner1768044697066_f03aa818c268583d1806bf0fee7b9827b608a1e87ec9b10ba5418e1bc9a8845e.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Neurology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2526_Neurology_scanner1768044697066_f03aa818c268583d1806bf0fee7b9827b608a1e87ec9b10ba5418e1bc9a8845e.xlsx
+++ b/log_history/Y4_B2526_Neurology_scanner1768044697066_f03aa818c268583d1806bf0fee7b9827b608a1e87ec9b10ba5418e1bc9a8845e.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Neurology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
